--- a/True_Results.xlsx
+++ b/True_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3 Joe\2 Gam3a\Term 7\CMPS446 - Image Processing and Computer Vision\Project\STEP_Scanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\image project\STEP_ID-Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0235273B-8D5C-45EF-A143-5E75DA423220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD382ED-B757-4E9D-B205-14221B876655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -105,12 +105,6 @@
     <t>يوسف جلال محمد نور الدين جلال</t>
   </si>
   <si>
-    <t>يوسف احمد عفيفى منصور</t>
-  </si>
-  <si>
-    <t>Information Obscured</t>
-  </si>
-  <si>
     <t>عمر ابراهيم احمد ابراهيم السروى</t>
   </si>
   <si>
@@ -141,18 +135,12 @@
     <t>ابراهيم محمود ابراهيم عبدالمعطى</t>
   </si>
   <si>
-    <t>يحي محمود نصر محمود</t>
-  </si>
-  <si>
     <t>سلمى محمد ابراهيم فتحى ابوريده</t>
   </si>
   <si>
     <t>حسن عمرو مصطفي محمد يوسف</t>
   </si>
   <si>
-    <t>محمد سامح صبحي حسن صبيح</t>
-  </si>
-  <si>
     <t>محمد احمد فهيم عبدالفتاح</t>
   </si>
   <si>
@@ -171,9 +159,6 @@
     <t>احمد سامح صلاح مصيلحى</t>
   </si>
   <si>
-    <t>حسن عمرو مصطفى محمد يوسف</t>
-  </si>
-  <si>
     <t>جنى ايمن وفائى محمد عيسى</t>
   </si>
   <si>
@@ -184,13 +169,16 @@
   </si>
   <si>
     <t>Daf3</t>
+  </si>
+  <si>
+    <t>ادهم احمد محمود ممدوح شبانة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +194,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
@@ -275,9 +256,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,9 +268,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -310,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -350,7 +328,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -456,7 +434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,35 +584,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAA91C-A1A6-447C-9C97-0B0A038DB89C}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -648,7 +626,7 @@
         <v>14712020100041</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -662,7 +640,7 @@
         <v>14712022101252</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -676,7 +654,7 @@
         <v>14712022101214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -690,7 +668,7 @@
         <v>14712022101495</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -704,7 +682,7 @@
         <v>14712022101358</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -718,7 +696,7 @@
         <v>14712022101524</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -732,7 +710,7 @@
         <v>14712022101392</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -746,7 +724,7 @@
         <v>14712022101329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -760,7 +738,7 @@
         <v>14712022101620</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -774,7 +752,7 @@
         <v>14712022101322</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -788,7 +766,7 @@
         <v>14712022100089</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -802,7 +780,7 @@
         <v>14712022100080</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -816,7 +794,7 @@
         <v>14712022100036</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -830,7 +808,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -844,7 +822,7 @@
         <v>14712022100643</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -858,7 +836,7 @@
         <v>14712022101079</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -872,7 +850,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -886,7 +864,7 @@
         <v>14712022101354</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -900,7 +878,7 @@
         <v>14712022101537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -914,7 +892,7 @@
         <v>14712022101624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -928,7 +906,7 @@
         <v>14712022101610</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -942,7 +920,7 @@
         <v>14712022101262</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -956,7 +934,7 @@
         <v>14712020100046</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -970,26 +948,26 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3">
-        <v>1200883</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1230157</v>
+      </c>
+      <c r="D26" s="4">
+        <v>14712023101281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3">
         <v>1190533</v>
@@ -998,12 +976,12 @@
         <v>14712019101776</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <v>1230165</v>
@@ -1012,12 +990,12 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="3">
         <v>1220003</v>
@@ -1026,12 +1004,12 @@
         <v>14712022100623</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3">
         <v>1220121</v>
@@ -1040,12 +1018,12 @@
         <v>14712022101552</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3">
         <v>1210096</v>
@@ -1054,12 +1032,12 @@
         <v>14712021100205</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3">
         <v>1230315</v>
@@ -1068,12 +1046,12 @@
         <v>14712023101217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3">
         <v>1210216</v>
@@ -1082,12 +1060,12 @@
         <v>14712021101550</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3">
         <v>1210227</v>
@@ -1096,12 +1074,12 @@
         <v>14712021101455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3">
         <v>1230165</v>
@@ -1110,12 +1088,12 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3">
         <v>1210235</v>
@@ -1124,12 +1102,12 @@
         <v>14712021101553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>1180568</v>
@@ -1138,26 +1116,26 @@
         <v>14712018102167</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C38" s="3">
-        <v>1200454</v>
+        <v>1210349</v>
       </c>
       <c r="D38" s="4">
-        <v>14712020101893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14712021101568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
         <v>1230196</v>
@@ -1166,7 +1144,7 @@
         <v>14712023101286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1180,12 +1158,12 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3">
         <v>1230030</v>
@@ -1194,26 +1172,26 @@
         <v>14712023101060</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3">
-        <v>1200460</v>
+        <v>4230138</v>
       </c>
       <c r="D42" s="4">
-        <v>14712020102030</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14712022101505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C43" s="3">
         <v>1220273</v>
@@ -1222,12 +1200,12 @@
         <v>14712022101338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3">
         <v>1230144</v>
@@ -1236,12 +1214,12 @@
         <v>14712023100148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C45" s="3">
         <v>1220221</v>
@@ -1250,12 +1228,12 @@
         <v>14712022101628</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" s="3">
         <v>1210284</v>
@@ -1264,12 +1242,12 @@
         <v>14712021101365</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C47" s="3">
         <v>1220229</v>
@@ -1278,46 +1256,18 @@
         <v>14712022101345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3">
-        <v>4230138</v>
+        <v>1230157</v>
       </c>
       <c r="D48" s="4">
-        <v>14712022101505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1230030</v>
-      </c>
-      <c r="D49" s="4">
-        <v>14712023101060</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1210349</v>
-      </c>
-      <c r="D50" s="4">
-        <v>14712021101568</v>
+        <v>14712023101281</v>
       </c>
     </row>
   </sheetData>

--- a/True_Results.xlsx
+++ b/True_Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\image project\STEP_ID-Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD382ED-B757-4E9D-B205-14221B876655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05B5971-3E85-425C-BF3A-06D675A5687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -172,13 +177,139 @@
   </si>
   <si>
     <t>ادهم احمد محمود ممدوح شبانة</t>
+  </si>
+  <si>
+    <t>14712020100041</t>
+  </si>
+  <si>
+    <t>14712022101214</t>
+  </si>
+  <si>
+    <t>14712022101495</t>
+  </si>
+  <si>
+    <t>14712022101358</t>
+  </si>
+  <si>
+    <t>14712022101524</t>
+  </si>
+  <si>
+    <t>14712522101392</t>
+  </si>
+  <si>
+    <t>14712022101329</t>
+  </si>
+  <si>
+    <t>14712022101620</t>
+  </si>
+  <si>
+    <t>14712022101322</t>
+  </si>
+  <si>
+    <t>14712022100089</t>
+  </si>
+  <si>
+    <t>14712022100080</t>
+  </si>
+  <si>
+    <t>14712022100036</t>
+  </si>
+  <si>
+    <t>14712022101553</t>
+  </si>
+  <si>
+    <t>1471202210078</t>
+  </si>
+  <si>
+    <t>14712022101079</t>
+  </si>
+  <si>
+    <t>14712022101373</t>
+  </si>
+  <si>
+    <t>14712022101354</t>
+  </si>
+  <si>
+    <t>14712022101537</t>
+  </si>
+  <si>
+    <t>14712022101624</t>
+  </si>
+  <si>
+    <t>14712022101610</t>
+  </si>
+  <si>
+    <t>14712022101262</t>
+  </si>
+  <si>
+    <t>14712020100046</t>
+  </si>
+  <si>
+    <t>14712023101281</t>
+  </si>
+  <si>
+    <t>14712019101774</t>
+  </si>
+  <si>
+    <t>14712023101223</t>
+  </si>
+  <si>
+    <t>14712022100623</t>
+  </si>
+  <si>
+    <t>14712022101552</t>
+  </si>
+  <si>
+    <t>14712021100205</t>
+  </si>
+  <si>
+    <t>14712023101217</t>
+  </si>
+  <si>
+    <t>14712021101550</t>
+  </si>
+  <si>
+    <t>14712021101455</t>
+  </si>
+  <si>
+    <t>14712021101553</t>
+  </si>
+  <si>
+    <t>14712018102167</t>
+  </si>
+  <si>
+    <t>14712021101568</t>
+  </si>
+  <si>
+    <t>14712023101286</t>
+  </si>
+  <si>
+    <t>14712023101060</t>
+  </si>
+  <si>
+    <t>14712022101505</t>
+  </si>
+  <si>
+    <t>14712022101338</t>
+  </si>
+  <si>
+    <t>14712023100148</t>
+  </si>
+  <si>
+    <t>14712022101628</t>
+  </si>
+  <si>
+    <t>14712021101365</t>
+  </si>
+  <si>
+    <t>14712022101345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +335,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -256,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +405,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAA91C-A1A6-447C-9C97-0B0A038DB89C}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,9 +735,10 @@
     <col min="2" max="2" width="30.453125" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" customWidth="1"/>
     <col min="4" max="4" width="27.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -611,8 +751,11 @@
       <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -625,8 +768,11 @@
       <c r="D2" s="4">
         <v>14712020100041</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -639,8 +785,11 @@
       <c r="D3" s="4">
         <v>14712022101252</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>14712022101252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -653,8 +802,11 @@
       <c r="D4" s="4">
         <v>14712022101214</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -667,8 +819,11 @@
       <c r="D5" s="4">
         <v>14712022101495</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -681,8 +836,11 @@
       <c r="D6" s="4">
         <v>14712022101358</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -695,8 +853,11 @@
       <c r="D7" s="4">
         <v>14712022101524</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -709,8 +870,11 @@
       <c r="D8" s="4">
         <v>14712022101392</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -723,8 +887,11 @@
       <c r="D9" s="4">
         <v>14712022101329</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -737,8 +904,11 @@
       <c r="D10" s="4">
         <v>14712022101620</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -751,8 +921,11 @@
       <c r="D11" s="4">
         <v>14712022101322</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -765,8 +938,11 @@
       <c r="D12" s="4">
         <v>14712022100089</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -779,8 +955,11 @@
       <c r="D13" s="4">
         <v>14712022100080</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -793,8 +972,11 @@
       <c r="D14" s="4">
         <v>14712022100036</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -807,8 +989,11 @@
       <c r="D15" s="4">
         <v>14712022101553</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -821,8 +1006,11 @@
       <c r="D16" s="4">
         <v>14712022100643</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -835,8 +1023,11 @@
       <c r="D17" s="4">
         <v>14712022101079</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -849,8 +1040,11 @@
       <c r="D18" s="4">
         <v>14712022101373</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -863,8 +1057,11 @@
       <c r="D19" s="4">
         <v>14712022101354</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -877,8 +1074,11 @@
       <c r="D20" s="4">
         <v>14712022101537</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -891,8 +1091,11 @@
       <c r="D21" s="4">
         <v>14712022101624</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -905,8 +1108,11 @@
       <c r="D22" s="4">
         <v>14712022101610</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -919,8 +1125,11 @@
       <c r="D23" s="4">
         <v>14712022101262</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -933,8 +1142,11 @@
       <c r="D24" s="4">
         <v>14712020100046</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -947,8 +1159,11 @@
       <c r="D25" s="4">
         <v>14712022101553</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -961,8 +1176,11 @@
       <c r="D26" s="4">
         <v>14712023101281</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -975,8 +1193,11 @@
       <c r="D27" s="4">
         <v>14712019101776</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -989,8 +1210,11 @@
       <c r="D28" s="4">
         <v>14712023101223</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1003,8 +1227,11 @@
       <c r="D29" s="4">
         <v>14712022100623</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1017,8 +1244,11 @@
       <c r="D30" s="4">
         <v>14712022101552</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1031,8 +1261,11 @@
       <c r="D31" s="4">
         <v>14712021100205</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1045,8 +1278,11 @@
       <c r="D32" s="4">
         <v>14712023101217</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1059,8 +1295,11 @@
       <c r="D33" s="4">
         <v>14712021101550</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1073,8 +1312,11 @@
       <c r="D34" s="4">
         <v>14712021101455</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1087,8 +1329,11 @@
       <c r="D35" s="4">
         <v>14712023101223</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1101,8 +1346,11 @@
       <c r="D36" s="4">
         <v>14712021101553</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1115,8 +1363,11 @@
       <c r="D37" s="4">
         <v>14712018102167</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1129,8 +1380,11 @@
       <c r="D38" s="4">
         <v>14712021101568</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1143,8 +1397,11 @@
       <c r="D39" s="4">
         <v>14712023101286</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1157,8 +1414,11 @@
       <c r="D40" s="4">
         <v>14712022101373</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1171,8 +1431,11 @@
       <c r="D41" s="4">
         <v>14712023101060</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1185,8 +1448,11 @@
       <c r="D42" s="4">
         <v>14712022101505</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1199,8 +1465,11 @@
       <c r="D43" s="4">
         <v>14712022101338</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1213,8 +1482,11 @@
       <c r="D44" s="4">
         <v>14712023100148</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1227,8 +1499,11 @@
       <c r="D45" s="4">
         <v>14712022101628</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1241,8 +1516,11 @@
       <c r="D46" s="4">
         <v>14712021101365</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1255,20 +1533,15 @@
       <c r="D47" s="4">
         <v>14712022101345</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1230157</v>
-      </c>
-      <c r="D48" s="4">
-        <v>14712023101281</v>
-      </c>
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/True_Results.xlsx
+++ b/True_Results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\image project\STEP_ID-Scanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3 Joe\2 Gam3a\Term 7\CMPS446 - Image Processing and Computer Vision\Project\STEP_Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05B5971-3E85-425C-BF3A-06D675A5687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4F049-D839-4A71-815C-30E57837F27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -164,9 +159,6 @@
     <t>احمد سامح صلاح مصيلحى</t>
   </si>
   <si>
-    <t>جنى ايمن وفائى محمد عيسى</t>
-  </si>
-  <si>
     <t>Student ID</t>
   </si>
   <si>
@@ -176,133 +168,37 @@
     <t>Daf3</t>
   </si>
   <si>
-    <t>ادهم احمد محمود ممدوح شبانة</t>
-  </si>
-  <si>
-    <t>14712020100041</t>
-  </si>
-  <si>
-    <t>14712022101214</t>
-  </si>
-  <si>
-    <t>14712022101495</t>
-  </si>
-  <si>
-    <t>14712022101358</t>
-  </si>
-  <si>
-    <t>14712022101524</t>
-  </si>
-  <si>
-    <t>14712522101392</t>
-  </si>
-  <si>
-    <t>14712022101329</t>
-  </si>
-  <si>
-    <t>14712022101620</t>
-  </si>
-  <si>
-    <t>14712022101322</t>
-  </si>
-  <si>
-    <t>14712022100089</t>
-  </si>
-  <si>
-    <t>14712022100080</t>
-  </si>
-  <si>
-    <t>14712022100036</t>
-  </si>
-  <si>
-    <t>14712022101553</t>
-  </si>
-  <si>
-    <t>1471202210078</t>
-  </si>
-  <si>
-    <t>14712022101079</t>
-  </si>
-  <si>
-    <t>14712022101373</t>
-  </si>
-  <si>
-    <t>14712022101354</t>
-  </si>
-  <si>
-    <t>14712022101537</t>
-  </si>
-  <si>
-    <t>14712022101624</t>
-  </si>
-  <si>
-    <t>14712022101610</t>
-  </si>
-  <si>
-    <t>14712022101262</t>
-  </si>
-  <si>
-    <t>14712020100046</t>
-  </si>
-  <si>
-    <t>14712023101281</t>
-  </si>
-  <si>
-    <t>14712019101774</t>
-  </si>
-  <si>
-    <t>14712023101223</t>
-  </si>
-  <si>
-    <t>14712022100623</t>
-  </si>
-  <si>
-    <t>14712022101552</t>
-  </si>
-  <si>
-    <t>14712021100205</t>
-  </si>
-  <si>
-    <t>14712023101217</t>
-  </si>
-  <si>
-    <t>14712021101550</t>
-  </si>
-  <si>
-    <t>14712021101455</t>
-  </si>
-  <si>
-    <t>14712021101553</t>
-  </si>
-  <si>
-    <t>14712018102167</t>
-  </si>
-  <si>
-    <t>14712021101568</t>
-  </si>
-  <si>
-    <t>14712023101286</t>
-  </si>
-  <si>
-    <t>14712023101060</t>
-  </si>
-  <si>
-    <t>14712022101505</t>
-  </si>
-  <si>
-    <t>14712022101338</t>
-  </si>
-  <si>
-    <t>14712023100148</t>
-  </si>
-  <si>
-    <t>14712022101628</t>
-  </si>
-  <si>
-    <t>14712021101365</t>
-  </si>
-  <si>
-    <t>14712022101345</t>
+    <t>يوسف احمد عفيفى منصور</t>
+  </si>
+  <si>
+    <t>(Obscured)</t>
+  </si>
+  <si>
+    <t>يحي محمود نصر محمود</t>
+  </si>
+  <si>
+    <t>محمد سامح صبحي حسن صبيح</t>
+  </si>
+  <si>
+    <t>جمانه تيمور محمد البكرى احمد محمد</t>
+  </si>
+  <si>
+    <t>عبدالله سمير عبد الموجود عسكر</t>
+  </si>
+  <si>
+    <t>حمزة احمد محمد منير الجوهري</t>
+  </si>
+  <si>
+    <t>لوجينا شوقي أحمد شحاته</t>
+  </si>
+  <si>
+    <t>احمد وائل محمد جويد نحيله</t>
+  </si>
+  <si>
+    <t>محمد هشام ابراهيم حسنين</t>
+  </si>
+  <si>
+    <t>يوسف عصام عبدالمنعم احمد منسي</t>
   </si>
 </sst>
 </file>
@@ -334,12 +230,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,22 +289,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,9 +327,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -467,7 +367,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -573,7 +473,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -715,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,828 +623,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAA91C-A1A6-447C-9C97-0B0A038DB89C}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1200277</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>14712020100041</v>
       </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1220175</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>14712022101252</v>
       </c>
-      <c r="E3">
-        <v>14712022101252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>1220165</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>14712022101214</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>1220145</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>14712022101495</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1220237</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>14712022101358</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>4230174</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>14712022101524</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>1220301</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>14712022101392</v>
       </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>1220205</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>14712022101329</v>
       </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>1220149</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>14712022101620</v>
       </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>1220319</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>14712022101322</v>
       </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>1220092</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>14712022100089</v>
       </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>1220188</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>14712022100080</v>
       </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>1220062</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>14712022100036</v>
       </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>4230189</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>14712022101553</v>
       </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>4230160</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>14712022100643</v>
       </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>4230142</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>14712022101079</v>
       </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>1220279</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>14712022101373</v>
       </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>1220256</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>14712022101354</v>
       </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>1220123</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>14712022101537</v>
       </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>1220137</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>14712022101624</v>
       </c>
-      <c r="E21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>4230159</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>14712022101610</v>
       </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>1220125</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>14712022101262</v>
       </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>1200309</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>14712020100046</v>
       </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>4230189</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>14712022101553</v>
       </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1200883</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3">
-        <v>1230157</v>
-      </c>
-      <c r="D26" s="4">
-        <v>14712023101281</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>1190533</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>14712019101776</v>
       </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>1230165</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>14712023101223</v>
       </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>1220003</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>14712022100623</v>
       </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>1220121</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>14712022101552</v>
       </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>1210096</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>14712021100205</v>
       </c>
-      <c r="E31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>1230315</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>14712023101217</v>
       </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>1210216</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>14712021101550</v>
       </c>
-      <c r="E33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>1210227</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>14712021101455</v>
       </c>
-      <c r="E34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>1230165</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>14712023101223</v>
       </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>1210235</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>14712021101553</v>
       </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>1180568</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>14712018102167</v>
       </c>
-      <c r="E37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1210349</v>
-      </c>
-      <c r="D38" s="4">
-        <v>14712021101568</v>
-      </c>
-      <c r="E38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1200454</v>
+      </c>
+      <c r="D38" s="5">
+        <v>14712020101893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>1230196</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>14712023101286</v>
       </c>
-      <c r="E39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>1220279</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>14712022101373</v>
       </c>
-      <c r="E40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>1230030</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>14712023101060</v>
       </c>
-      <c r="E41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="3">
-        <v>4230138</v>
-      </c>
-      <c r="D42" s="4">
-        <v>14712022101505</v>
-      </c>
-      <c r="E42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1200460</v>
+      </c>
+      <c r="D42" s="5">
+        <v>14712020102030</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>1220273</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>14712022101338</v>
       </c>
-      <c r="E43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>1230144</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>14712023100148</v>
       </c>
-      <c r="E44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>1220221</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>14712022101628</v>
       </c>
-      <c r="E45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>1210284</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>14712021101365</v>
       </c>
-      <c r="E46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>1220229</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>14712022101345</v>
       </c>
-      <c r="E47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="4">
+        <v>4230138</v>
+      </c>
+      <c r="D48" s="5">
+        <v>14712022101505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1220006</v>
+      </c>
+      <c r="D49" s="5">
+        <v>14712022100861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1230204</v>
+      </c>
+      <c r="D50" s="5">
+        <v>14712023101193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1220169</v>
+      </c>
+      <c r="D51" s="5">
+        <v>14712022101244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1220138</v>
+      </c>
+      <c r="D52" s="5">
+        <v>14712022101562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1220162</v>
+      </c>
+      <c r="D53" s="5">
+        <v>14712022101210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1220278</v>
+      </c>
+      <c r="D54" s="5">
+        <v>14712022101414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1220090</v>
+      </c>
+      <c r="D55" s="5">
+        <v>14712022100101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/True_Results.xlsx
+++ b/True_Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3 Joe\2 Gam3a\Term 7\CMPS446 - Image Processing and Computer Vision\Project\STEP_Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4F049-D839-4A71-815C-30E57837F27F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53E568-6C14-4557-AE3D-FA6F836BBAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +160,6 @@
     <t>احمد سامح صلاح مصيلحى</t>
   </si>
   <si>
-    <t>Student ID</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -199,6 +197,36 @@
   </si>
   <si>
     <t>يوسف عصام عبدالمنعم احمد منسي</t>
+  </si>
+  <si>
+    <t>سلمى حلمي علي ريان</t>
+  </si>
+  <si>
+    <t>حسين محمد ماهر بهاء الدين</t>
+  </si>
+  <si>
+    <t>عبد الرحمن على السيد محمد السيد الحديدى</t>
+  </si>
+  <si>
+    <t>ادهم احمد محمود ممدوح شبانة</t>
+  </si>
+  <si>
+    <t>جني ايمن وفائي محمد عيسي</t>
+  </si>
+  <si>
+    <t>مارلى رفعت فاروق عبد السيد</t>
+  </si>
+  <si>
+    <t>يوسف عصام عبد المنعم احمد منسي</t>
+  </si>
+  <si>
+    <t>Student Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Code</t>
   </si>
 </sst>
 </file>
@@ -289,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -309,6 +337,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAA91C-A1A6-447C-9C97-0B0A038DB89C}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,17 +668,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -994,13 +1021,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4">
         <v>1200883</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1162,7 +1189,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4">
         <v>1200454</v>
@@ -1218,7 +1245,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4">
         <v>1200460</v>
@@ -1316,7 +1343,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="4">
         <v>1220006</v>
@@ -1330,7 +1357,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="4">
         <v>1230204</v>
@@ -1344,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="4">
         <v>1220169</v>
@@ -1358,7 +1385,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4">
         <v>1220138</v>
@@ -1372,7 +1399,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4">
         <v>1220162</v>
@@ -1386,7 +1413,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4">
         <v>1220278</v>
@@ -1400,7 +1427,797 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1220090</v>
+      </c>
+      <c r="D55" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88C7718-798F-443C-A28B-1961B1CF9765}">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1200277</v>
+      </c>
+      <c r="D2" s="5">
+        <v>14712020100041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1220175</v>
+      </c>
+      <c r="D3" s="5">
+        <v>14712022101256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1220165</v>
+      </c>
+      <c r="D4" s="5">
+        <v>14712022101214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1220145</v>
+      </c>
+      <c r="D5" s="5">
+        <v>14712022101495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1220237</v>
+      </c>
+      <c r="D6" s="5">
+        <v>14712022101358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4230174</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14712022101524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1220301</v>
+      </c>
+      <c r="D8" s="5">
+        <v>14712022101392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1220205</v>
+      </c>
+      <c r="D9" s="5">
+        <v>14712022101329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1220149</v>
+      </c>
+      <c r="D10" s="5">
+        <v>14712022101620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1220319</v>
+      </c>
+      <c r="D11" s="5">
+        <v>14712022101322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1220092</v>
+      </c>
+      <c r="D12" s="5">
+        <v>14712022100089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1220188</v>
+      </c>
+      <c r="D13" s="5">
+        <v>14712022100080</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1220062</v>
+      </c>
+      <c r="D14" s="5">
+        <v>14712022100036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4230189</v>
+      </c>
+      <c r="D15" s="5">
+        <v>14712022101553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4230160</v>
+      </c>
+      <c r="D16" s="5">
+        <v>14712022100643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4230142</v>
+      </c>
+      <c r="D17" s="5">
+        <v>14712022101079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1220279</v>
+      </c>
+      <c r="D18" s="5">
+        <v>14712022101373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1220256</v>
+      </c>
+      <c r="D19" s="5">
+        <v>14712022101354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1220123</v>
+      </c>
+      <c r="D20" s="5">
+        <v>14712022101537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1220137</v>
+      </c>
+      <c r="D21" s="5">
+        <v>14712022101624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4230159</v>
+      </c>
+      <c r="D22" s="5">
+        <v>14712022101610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1220125</v>
+      </c>
+      <c r="D23" s="5">
+        <v>14712022101262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1200309</v>
+      </c>
+      <c r="D24" s="5">
+        <v>14712020100046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4230189</v>
+      </c>
+      <c r="D25" s="5">
+        <v>14712022101553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1230157</v>
+      </c>
+      <c r="D26" s="5">
+        <v>14712023101281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1190533</v>
+      </c>
+      <c r="D27" s="5">
+        <v>14712019101776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1230165</v>
+      </c>
+      <c r="D28" s="5">
+        <v>14712023101223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1220003</v>
+      </c>
+      <c r="D29" s="5">
+        <v>14712022100623</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1220121</v>
+      </c>
+      <c r="D30" s="5">
+        <v>14712022101552</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1210096</v>
+      </c>
+      <c r="D31" s="5">
+        <v>14712021100205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1230315</v>
+      </c>
+      <c r="D32" s="5">
+        <v>14712023101217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1210216</v>
+      </c>
+      <c r="D33" s="5">
+        <v>14712021101550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1210227</v>
+      </c>
+      <c r="D34" s="5">
+        <v>14712021101455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1230165</v>
+      </c>
+      <c r="D35" s="5">
+        <v>14712023101223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1210235</v>
+      </c>
+      <c r="D36" s="5">
+        <v>14712021101553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1180568</v>
+      </c>
+      <c r="D37" s="5">
+        <v>14712018102167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1210349</v>
+      </c>
+      <c r="D38" s="5">
+        <v>14712021101568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1230196</v>
+      </c>
+      <c r="D39" s="5">
+        <v>14712023101286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1220279</v>
+      </c>
+      <c r="D40" s="5">
+        <v>14712022101373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1230030</v>
+      </c>
+      <c r="D41" s="5">
+        <v>14712023101060</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <v>4230138</v>
+      </c>
+      <c r="D42" s="5">
+        <v>14712022101505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1220273</v>
+      </c>
+      <c r="D43" s="5">
+        <v>14712022101338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1230144</v>
+      </c>
+      <c r="D44" s="5">
+        <v>14712023100148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1220221</v>
+      </c>
+      <c r="D45" s="5">
+        <v>14712022101628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1210284</v>
+      </c>
+      <c r="D46" s="5">
+        <v>14712021101365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1220229</v>
+      </c>
+      <c r="D47" s="5">
+        <v>14712022101345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1230236</v>
+      </c>
+      <c r="D48" s="5">
+        <v>14712023101120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1220006</v>
+      </c>
+      <c r="D49" s="5">
+        <v>14712021100861</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1230204</v>
+      </c>
+      <c r="D50" s="5">
+        <v>14712023101193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1220169</v>
+      </c>
+      <c r="D51" s="5">
+        <v>14712022101244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1220138</v>
+      </c>
+      <c r="D52" s="5">
+        <v>14712022101562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1220162</v>
+      </c>
+      <c r="D53" s="5">
+        <v>14712022101210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1220278</v>
+      </c>
+      <c r="D54" s="5">
+        <v>14712022101414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C55" s="4">
         <v>1220090</v>

--- a/True_Results.xlsx
+++ b/True_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\image project\STEP_ID-Scanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNI\4th year\First Term\Image\PROJECT\STEP_ID-Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B29C1-BB06-4CFC-A539-D6B6CA666188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BB131-BBBA-4A03-8C30-77E62086EB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t>مصطفى محمود احمد عويس</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Code</t>
+  </si>
+  <si>
+    <t>يوسف عصام عبدالمنعم احمد منسي</t>
+  </si>
+  <si>
+    <t>مصطفي محمود احمد عويس</t>
+  </si>
+  <si>
+    <t>حسين محمد ماهر بهاءالدين</t>
+  </si>
+  <si>
+    <t>ابراهيم محمود ابراهيم عبد المعطي</t>
+  </si>
+  <si>
+    <t>محمد احمد فهيم عبد الفتاح</t>
   </si>
 </sst>
 </file>
@@ -626,20 +641,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAA91C-A1A6-447C-9C97-0B0A038DB89C}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="224" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -654,12 +669,12 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3">
         <v>1200277</v>
@@ -668,7 +683,7 @@
         <v>14712020100041</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -683,7 +698,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -697,7 +712,7 @@
         <v>14712022101214</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -711,12 +726,12 @@
         <v>14712022101495</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3">
         <v>1220237</v>
@@ -725,7 +740,7 @@
         <v>14712022101358</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -739,7 +754,7 @@
         <v>14712022101524</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -754,7 +769,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -768,7 +783,7 @@
         <v>14712022101329</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -782,7 +797,7 @@
         <v>14712022101620</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -796,7 +811,7 @@
         <v>14712022101322</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -810,7 +825,7 @@
         <v>14712022100089</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -824,7 +839,7 @@
         <v>14712022100080</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -838,7 +853,7 @@
         <v>14712022100036</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -852,7 +867,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -867,7 +882,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -881,7 +896,7 @@
         <v>14712022101079</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -895,7 +910,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -909,7 +924,7 @@
         <v>14712022101354</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -923,7 +938,7 @@
         <v>14712022101537</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -937,7 +952,7 @@
         <v>14712022101624</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -951,7 +966,7 @@
         <v>14712022101610</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -965,7 +980,7 @@
         <v>14712022101262</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -979,7 +994,7 @@
         <v>14712020100046</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>14712023101281</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1022,7 +1037,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1050,7 +1065,7 @@
         <v>14712022100623</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>14712022101552</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>14712021100205</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>14712023101217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>14712021101550</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>14712021101455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1148,12 +1163,12 @@
         <v>14712021101553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3">
         <v>1180568</v>
@@ -1162,7 +1177,7 @@
         <v>14712018102167</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>14712021101568</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1190,7 +1205,7 @@
         <v>14712023101286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1204,7 +1219,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1218,7 +1233,7 @@
         <v>14712023101060</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1232,12 +1247,12 @@
         <v>14712022101505</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3">
         <v>1220273</v>
@@ -1246,7 +1261,7 @@
         <v>14712022101338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1260,7 +1275,7 @@
         <v>14712023100148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1274,7 +1289,7 @@
         <v>14712022101628</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1288,7 +1303,7 @@
         <v>14712021101365</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1302,7 +1317,7 @@
         <v>14712022101345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>14712023101120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1330,7 +1345,7 @@
         <v>14712022100861</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>14712023101193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1358,7 +1373,7 @@
         <v>14712022101244</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1372,7 +1387,7 @@
         <v>14712022101562</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>14712022101210</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1400,12 +1415,12 @@
         <v>14712022101414</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C55" s="3">
         <v>1220090</v>
@@ -1428,15 +1443,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1450,7 +1465,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1464,7 +1479,7 @@
         <v>14712020100041</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1478,7 +1493,7 @@
         <v>14712022101256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1492,7 +1507,7 @@
         <v>14712022101214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1506,7 +1521,7 @@
         <v>14712022101495</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1520,7 +1535,7 @@
         <v>14712022101358</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1534,7 +1549,7 @@
         <v>14712022101524</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1548,7 +1563,7 @@
         <v>14712022101392</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1562,7 +1577,7 @@
         <v>14712022101329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1576,7 +1591,7 @@
         <v>14712022101620</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>14712022101322</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1604,7 +1619,7 @@
         <v>14712022100089</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1618,7 +1633,7 @@
         <v>14712022100080</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1632,7 +1647,7 @@
         <v>14712022100036</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1646,7 +1661,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1660,7 +1675,7 @@
         <v>14712022100643</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1674,7 +1689,7 @@
         <v>14712022101079</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>14712022101354</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>14712022101537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1730,7 +1745,7 @@
         <v>14712022101624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>14712022101610</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>14712022101262</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1772,7 +1787,7 @@
         <v>14712020100046</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1786,7 +1801,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1800,7 +1815,7 @@
         <v>14712023101281</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1814,7 +1829,7 @@
         <v>14712019101776</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1828,7 +1843,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1842,7 +1857,7 @@
         <v>14712022100623</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1856,7 +1871,7 @@
         <v>14712022101552</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1870,7 +1885,7 @@
         <v>14712021100205</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1884,7 +1899,7 @@
         <v>14712023101217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>14712021101550</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1912,7 +1927,7 @@
         <v>14712021101455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1940,7 +1955,7 @@
         <v>14712021101553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1954,7 +1969,7 @@
         <v>14712018102167</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1968,7 +1983,7 @@
         <v>14712021101568</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1982,7 +1997,7 @@
         <v>14712023101286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1996,7 +2011,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>14712023101060</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2024,7 +2039,7 @@
         <v>14712022101505</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>14712022101338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>14712023100148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2066,7 +2081,7 @@
         <v>14712022101628</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>14712021101365</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>14712022101345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2108,7 +2123,7 @@
         <v>14712023101120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2122,7 +2137,7 @@
         <v>14712021100861</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>14712023101193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2150,7 +2165,7 @@
         <v>14712022101244</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2164,7 +2179,7 @@
         <v>14712022101562</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2178,7 +2193,7 @@
         <v>14712022101210</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2192,7 +2207,7 @@
         <v>14712022101414</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>

--- a/True_Results.xlsx
+++ b/True_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNI\4th year\First Term\Image\PROJECT\STEP_ID-Scanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\image project\STEP_ID-Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943BB131-BBBA-4A03-8C30-77E62086EB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B29C1-BB06-4CFC-A539-D6B6CA666188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>مصطفى محمود احمد عويس</t>
   </si>
@@ -202,21 +202,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Code</t>
-  </si>
-  <si>
-    <t>يوسف عصام عبدالمنعم احمد منسي</t>
-  </si>
-  <si>
-    <t>مصطفي محمود احمد عويس</t>
-  </si>
-  <si>
-    <t>حسين محمد ماهر بهاءالدين</t>
-  </si>
-  <si>
-    <t>ابراهيم محمود ابراهيم عبد المعطي</t>
-  </si>
-  <si>
-    <t>محمد احمد فهيم عبد الفتاح</t>
   </si>
 </sst>
 </file>
@@ -641,20 +626,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAA91C-A1A6-447C-9C97-0B0A038DB89C}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="224" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -669,12 +654,12 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>1200277</v>
@@ -683,7 +668,7 @@
         <v>14712020100041</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -698,7 +683,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -712,7 +697,7 @@
         <v>14712022101214</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -726,12 +711,12 @@
         <v>14712022101495</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
         <v>1220237</v>
@@ -740,7 +725,7 @@
         <v>14712022101358</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -754,7 +739,7 @@
         <v>14712022101524</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -769,7 +754,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -783,7 +768,7 @@
         <v>14712022101329</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -797,7 +782,7 @@
         <v>14712022101620</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -811,7 +796,7 @@
         <v>14712022101322</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -825,7 +810,7 @@
         <v>14712022100089</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -839,7 +824,7 @@
         <v>14712022100080</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -853,7 +838,7 @@
         <v>14712022100036</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -867,7 +852,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -882,7 +867,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -896,7 +881,7 @@
         <v>14712022101079</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -910,7 +895,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -924,7 +909,7 @@
         <v>14712022101354</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -938,7 +923,7 @@
         <v>14712022101537</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -952,7 +937,7 @@
         <v>14712022101624</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -966,7 +951,7 @@
         <v>14712022101610</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -980,7 +965,7 @@
         <v>14712022101262</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -994,7 +979,7 @@
         <v>14712020100046</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1008,7 +993,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1022,7 +1007,7 @@
         <v>14712023101281</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1037,7 +1022,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1051,7 +1036,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1065,7 +1050,7 @@
         <v>14712022100623</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1079,7 +1064,7 @@
         <v>14712022101552</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1093,7 +1078,7 @@
         <v>14712021100205</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1107,7 +1092,7 @@
         <v>14712023101217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1121,7 +1106,7 @@
         <v>14712021101550</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1135,7 +1120,7 @@
         <v>14712021101455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1149,7 +1134,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1163,12 +1148,12 @@
         <v>14712021101553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C37" s="3">
         <v>1180568</v>
@@ -1177,7 +1162,7 @@
         <v>14712018102167</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1191,7 +1176,7 @@
         <v>14712021101568</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1205,7 +1190,7 @@
         <v>14712023101286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1219,7 +1204,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1233,7 +1218,7 @@
         <v>14712023101060</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1247,12 +1232,12 @@
         <v>14712022101505</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C43" s="3">
         <v>1220273</v>
@@ -1261,7 +1246,7 @@
         <v>14712022101338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1275,7 +1260,7 @@
         <v>14712023100148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1289,7 +1274,7 @@
         <v>14712022101628</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1303,7 +1288,7 @@
         <v>14712021101365</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1317,7 +1302,7 @@
         <v>14712022101345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1331,7 +1316,7 @@
         <v>14712023101120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1345,7 +1330,7 @@
         <v>14712022100861</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1359,7 +1344,7 @@
         <v>14712023101193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1373,7 +1358,7 @@
         <v>14712022101244</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1387,7 +1372,7 @@
         <v>14712022101562</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1401,7 +1386,7 @@
         <v>14712022101210</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1415,12 +1400,12 @@
         <v>14712022101414</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3">
         <v>1220090</v>
@@ -1443,15 +1428,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="39.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1465,7 +1450,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1479,7 +1464,7 @@
         <v>14712020100041</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1493,7 +1478,7 @@
         <v>14712022101256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1507,7 +1492,7 @@
         <v>14712022101214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1521,7 +1506,7 @@
         <v>14712022101495</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1535,7 +1520,7 @@
         <v>14712022101358</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1549,7 +1534,7 @@
         <v>14712022101524</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1563,7 +1548,7 @@
         <v>14712022101392</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1577,7 +1562,7 @@
         <v>14712022101329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1591,7 +1576,7 @@
         <v>14712022101620</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1605,7 +1590,7 @@
         <v>14712022101322</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1619,7 +1604,7 @@
         <v>14712022100089</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1633,7 +1618,7 @@
         <v>14712022100080</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1647,7 +1632,7 @@
         <v>14712022100036</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1661,7 +1646,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1675,7 +1660,7 @@
         <v>14712022100643</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1689,7 +1674,7 @@
         <v>14712022101079</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1703,7 +1688,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1717,7 +1702,7 @@
         <v>14712022101354</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1731,7 +1716,7 @@
         <v>14712022101537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1745,7 +1730,7 @@
         <v>14712022101624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1759,7 +1744,7 @@
         <v>14712022101610</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1773,7 +1758,7 @@
         <v>14712022101262</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1787,7 +1772,7 @@
         <v>14712020100046</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1801,7 +1786,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1815,7 +1800,7 @@
         <v>14712023101281</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1829,7 +1814,7 @@
         <v>14712019101776</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1843,7 +1828,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1857,7 +1842,7 @@
         <v>14712022100623</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1871,7 +1856,7 @@
         <v>14712022101552</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1885,7 +1870,7 @@
         <v>14712021100205</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1899,7 +1884,7 @@
         <v>14712023101217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1913,7 +1898,7 @@
         <v>14712021101550</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1927,7 +1912,7 @@
         <v>14712021101455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1941,7 +1926,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1955,7 +1940,7 @@
         <v>14712021101553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1969,7 +1954,7 @@
         <v>14712018102167</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1983,7 +1968,7 @@
         <v>14712021101568</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1997,7 +1982,7 @@
         <v>14712023101286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2011,7 +1996,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>14712023101060</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2039,7 +2024,7 @@
         <v>14712022101505</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2053,7 +2038,7 @@
         <v>14712022101338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2067,7 +2052,7 @@
         <v>14712023100148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2081,7 +2066,7 @@
         <v>14712022101628</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2095,7 +2080,7 @@
         <v>14712021101365</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2109,7 +2094,7 @@
         <v>14712022101345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2123,7 +2108,7 @@
         <v>14712023101120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2137,7 +2122,7 @@
         <v>14712021100861</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2151,7 +2136,7 @@
         <v>14712023101193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2165,7 +2150,7 @@
         <v>14712022101244</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2179,7 +2164,7 @@
         <v>14712022101562</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2193,7 +2178,7 @@
         <v>14712022101210</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2207,7 +2192,7 @@
         <v>14712022101414</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>54</v>
       </c>

--- a/True_Results.xlsx
+++ b/True_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\image project\STEP_ID-Scanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UNI\4th year\First Term\Image\PROJECT\STEP_ID-Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8B29C1-BB06-4CFC-A539-D6B6CA666188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5501A310-1107-42A9-885C-C4AC0511C692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1FA5F84-139F-4DC5-A2AD-8E0048BF87DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>مصطفى محمود احمد عويس</t>
   </si>
@@ -202,6 +202,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Code</t>
+  </si>
+  <si>
+    <t>حسين محمد ماهر بهاءالدين</t>
+  </si>
+  <si>
+    <t>يوسف محمد حمدى محمد عثمان</t>
+  </si>
+  <si>
+    <t>فادى سامي نبيل داود</t>
+  </si>
+  <si>
+    <t>ابراهيم محمود ابراهيم عبد المعطى</t>
+  </si>
+  <si>
+    <t>جنى ايمن وفائى محمد عيسى</t>
+  </si>
+  <si>
+    <t>محمد احمد فهيم عبد الفتاح</t>
+  </si>
+  <si>
+    <t>يوسف عصام عبدالمنعم احمد منسي</t>
   </si>
 </sst>
 </file>
@@ -626,20 +647,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCAA91C-A1A6-447C-9C97-0B0A038DB89C}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -654,7 +675,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -668,7 +689,7 @@
         <v>14712020100041</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -683,7 +704,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -697,7 +718,7 @@
         <v>14712022101214</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -711,12 +732,12 @@
         <v>14712022101495</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3">
         <v>1220237</v>
@@ -725,7 +746,7 @@
         <v>14712022101358</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -739,12 +760,12 @@
         <v>14712022101524</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3">
         <v>1220301</v>
@@ -754,7 +775,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -768,7 +789,7 @@
         <v>14712022101329</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -782,7 +803,7 @@
         <v>14712022101620</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -796,7 +817,7 @@
         <v>14712022101322</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -810,7 +831,7 @@
         <v>14712022100089</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -824,7 +845,7 @@
         <v>14712022100080</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -838,7 +859,7 @@
         <v>14712022100036</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -852,12 +873,12 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3">
         <v>4230160</v>
@@ -867,7 +888,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -881,7 +902,7 @@
         <v>14712022101079</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -895,7 +916,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -909,7 +930,7 @@
         <v>14712022101354</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -923,7 +944,7 @@
         <v>14712022101537</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -937,7 +958,7 @@
         <v>14712022101624</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -951,7 +972,7 @@
         <v>14712022101610</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -965,7 +986,7 @@
         <v>14712022101262</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -979,7 +1000,7 @@
         <v>14712020100046</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -993,7 +1014,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1007,7 +1028,7 @@
         <v>14712023101281</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1022,7 +1043,7 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1036,7 +1057,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>14712022100623</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>14712022101552</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>14712021100205</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1092,7 +1113,7 @@
         <v>14712023101217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>14712021101550</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>14712021101455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1134,7 +1155,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1148,12 +1169,12 @@
         <v>14712021101553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C37" s="3">
         <v>1180568</v>
@@ -1162,12 +1183,12 @@
         <v>14712018102167</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C38" s="3">
         <v>1210349</v>
@@ -1176,7 +1197,7 @@
         <v>14712021101568</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1190,7 +1211,7 @@
         <v>14712023101286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1204,7 +1225,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1218,7 +1239,7 @@
         <v>14712023101060</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1232,12 +1253,12 @@
         <v>14712022101505</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C43" s="3">
         <v>1220273</v>
@@ -1246,7 +1267,7 @@
         <v>14712022101338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1260,7 +1281,7 @@
         <v>14712023100148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1274,7 +1295,7 @@
         <v>14712022101628</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1288,7 +1309,7 @@
         <v>14712021101365</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1302,7 +1323,7 @@
         <v>14712022101345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1316,7 +1337,7 @@
         <v>14712023101120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1330,7 +1351,7 @@
         <v>14712022100861</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>14712023101193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1358,7 +1379,7 @@
         <v>14712022101244</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1372,7 +1393,7 @@
         <v>14712022101562</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1386,7 +1407,7 @@
         <v>14712022101210</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1400,12 +1421,12 @@
         <v>14712022101414</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3">
         <v>1220090</v>
@@ -1428,15 +1449,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -1450,7 +1471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1464,7 +1485,7 @@
         <v>14712020100041</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1478,7 +1499,7 @@
         <v>14712022101256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1492,7 +1513,7 @@
         <v>14712022101214</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1506,7 +1527,7 @@
         <v>14712022101495</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1520,7 +1541,7 @@
         <v>14712022101358</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>14712022101524</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1548,7 +1569,7 @@
         <v>14712022101392</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1562,7 +1583,7 @@
         <v>14712022101329</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1576,7 +1597,7 @@
         <v>14712022101620</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1590,7 +1611,7 @@
         <v>14712022101322</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1604,7 +1625,7 @@
         <v>14712022100089</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1618,7 +1639,7 @@
         <v>14712022100080</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1632,7 +1653,7 @@
         <v>14712022100036</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1646,7 +1667,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1660,7 +1681,7 @@
         <v>14712022100643</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1674,7 +1695,7 @@
         <v>14712022101079</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1702,7 +1723,7 @@
         <v>14712022101354</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1716,7 +1737,7 @@
         <v>14712022101537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1730,7 +1751,7 @@
         <v>14712022101624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1744,7 +1765,7 @@
         <v>14712022101610</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1758,7 +1779,7 @@
         <v>14712022101262</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1772,7 +1793,7 @@
         <v>14712020100046</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1786,7 +1807,7 @@
         <v>14712022101553</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1800,7 +1821,7 @@
         <v>14712023101281</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1814,7 +1835,7 @@
         <v>14712019101776</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1828,7 +1849,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1842,7 +1863,7 @@
         <v>14712022100623</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1856,7 +1877,7 @@
         <v>14712022101552</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1870,7 +1891,7 @@
         <v>14712021100205</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1884,7 +1905,7 @@
         <v>14712023101217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>14712021101550</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1912,7 +1933,7 @@
         <v>14712021101455</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1926,7 +1947,7 @@
         <v>14712023101223</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1940,7 +1961,7 @@
         <v>14712021101553</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1954,7 +1975,7 @@
         <v>14712018102167</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1968,7 +1989,7 @@
         <v>14712021101568</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1982,7 +2003,7 @@
         <v>14712023101286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1996,7 +2017,7 @@
         <v>14712022101373</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2010,7 +2031,7 @@
         <v>14712023101060</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2024,7 +2045,7 @@
         <v>14712022101505</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2038,7 +2059,7 @@
         <v>14712022101338</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2052,7 +2073,7 @@
         <v>14712023100148</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2066,7 +2087,7 @@
         <v>14712022101628</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>14712021101365</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2094,7 +2115,7 @@
         <v>14712022101345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2108,7 +2129,7 @@
         <v>14712023101120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>14712021100861</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2136,7 +2157,7 @@
         <v>14712023101193</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2150,7 +2171,7 @@
         <v>14712022101244</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2164,7 +2185,7 @@
         <v>14712022101562</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2178,7 +2199,7 @@
         <v>14712022101210</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2192,7 +2213,7 @@
         <v>14712022101414</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
